--- a/Test/MC_Ssf/T1/Sensors_data_1000023.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000023.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6761108492618298</v>
+        <v>0.9544696041823935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01432062277861955</v>
+        <v>0.002013107330020671</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001280464857752461</v>
+        <v>-0.001577742786068592</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8516017112779716</v>
+        <v>0.6053211084882828</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006624246059754248</v>
+        <v>0.01761779138074774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1255419054107518</v>
+        <v>0.2622189507619517</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
